--- a/MWI/tHFA-country-analysis_v0.2.xlsx
+++ b/MWI/tHFA-country-analysis_v0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d4a9fd65a6bad53/Seun/2. Career and business/3. IQVIA-Asiwaju-PC/Analysis/tHFA/MWI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:40009_{2B0F9D35-5D8A-469B-8EA5-BCAD22C922EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B7672A0-E7D7-42D9-AA3E-63DD5FBDE6B3}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:40009_{2B0F9D35-5D8A-469B-8EA5-BCAD22C922EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E586B62C-BD71-4A86-9FEE-EAD3927BBF38}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7810" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tHFA-malawi-analysis_v1.0" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3289,21 +3289,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3311,6 +3305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -3357,9 +3352,18 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="251">
+  <dxfs count="43">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3377,16 +3381,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3395,22 +3390,13 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3425,22 +3411,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3488,37 +3459,7 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3533,580 +3474,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -9809,7 +9180,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD3B3892-0068-4572-84BB-C10B99BFAFFB}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD3B3892-0068-4572-84BB-C10B99BFAFFB}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A2:V13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="44">
     <pivotField dataField="1" showAll="0"/>
@@ -9987,19 +9358,19 @@
   </colItems>
   <dataFields count="21">
     <dataField name="Count of Q100" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Average of Quality_Score" fld="13" subtotal="average" baseField="11" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of iss_score" fld="18" subtotal="average" baseField="0" baseItem="1" numFmtId="2"/>
-    <dataField name="Average of HTM-ANC" fld="20" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of system_CHW_score" fld="22" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of facility_composite" fld="24" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of CHW_paid" fld="32" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of CLM_score" fld="34" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of guideline_score" fld="35" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of oxygen_score" fld="37" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of vacancy_score" fld="41" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of test-capac" fld="39" subtotal="average" baseField="4" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of HW_Competence_Score" fld="14" subtotal="average" baseField="11" baseItem="0" numFmtId="2"/>
-    <dataField name="Average of Patient_Centeredness_Score" fld="16" subtotal="average" baseField="11" baseItem="0" numFmtId="2"/>
+    <dataField name="Average of Quality_Score" fld="13" subtotal="average" baseField="11" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of iss_score" fld="18" subtotal="average" baseField="0" baseItem="1" numFmtId="1"/>
+    <dataField name="Average of HTM-ANC" fld="20" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of system_CHW_score" fld="22" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of facility_composite" fld="24" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of CHW_paid" fld="32" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of CLM_score" fld="34" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of guideline_score" fld="35" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of oxygen_score" fld="37" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of vacancy_score" fld="41" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of test-capac" fld="39" subtotal="average" baseField="4" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of HW_Competence_Score" fld="14" subtotal="average" baseField="11" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of Patient_Centeredness_Score" fld="16" subtotal="average" baseField="11" baseItem="0" numFmtId="1"/>
     <dataField name="Average of HTM-ANC2" fld="25" subtotal="average" baseField="11" baseItem="0" numFmtId="1"/>
     <dataField name="Average of presence_score" fld="26" subtotal="average" baseField="11" baseItem="0" numFmtId="1"/>
     <dataField name="Average of caseload" fld="27" subtotal="average" baseField="11" baseItem="0" numFmtId="1"/>
@@ -10008,25 +9379,8 @@
     <dataField name="Average of TB_treatment_completion" fld="30" subtotal="average" baseField="11" baseItem="0" numFmtId="1"/>
     <dataField name="Average of ART_retention" fld="31" subtotal="average" baseField="11" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="14">
-    <format dxfId="250">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="9" selected="0">
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="249">
+  <formats count="11">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="9">
@@ -10043,10 +9397,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="248">
+    <format dxfId="41">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="247">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="10">
@@ -10064,16 +9418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="246">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="245">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10082,16 +9427,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="244">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="243">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10100,7 +9436,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="242">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10109,17 +9445,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="241">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2" selected="0">
-            <x v="12"/>
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="240">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10129,22 +9455,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="7" selected="0">
-            <x v="14"/>
-            <x v="15"/>
-            <x v="16"/>
-            <x v="17"/>
-            <x v="18"/>
-            <x v="19"/>
-            <x v="20"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
@@ -10159,10 +9470,66 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="7">
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="20" selected="0">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="20">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
             <x v="14"/>
             <x v="15"/>
             <x v="16"/>
@@ -10486,8 +9853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16772C-E3E5-45F4-9DBD-6F05BDB38719}">
   <dimension ref="A1:AR121"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25493,34 +24860,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.08984375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
@@ -25529,10 +24896,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -25565,34 +24932,34 @@
       <c r="L2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="5" t="s">
         <v>921</v>
       </c>
     </row>
@@ -25600,269 +24967,269 @@
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>63</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>56.494286625295445</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>80.952380952380949</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>63.360655737704853</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>59.724462365591393</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>69.613854413613751</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>56.827956989247305</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>76.984126984126974</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>82.615268329554013</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>50</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>28.863145037176629</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>42.731169380344745</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>46.278054210233115</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="4">
         <v>67.184344616277599</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="4">
         <v>63.360655737704853</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="4">
         <v>72.500311779723546</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="4">
         <v>74.514420520999479</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="4">
         <v>41.311475409836063</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="4">
         <v>91.846686170883842</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="4">
         <v>69.285714285714292</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="4">
         <v>78.202614379084963</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>61.3888888888888</v>
       </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4">
         <v>66.6666666666666</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>75</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>72.349356804333098</v>
       </c>
-      <c r="H4" s="2">
-        <v>100</v>
-      </c>
-      <c r="I4" s="2">
-        <v>100</v>
-      </c>
-      <c r="J4" s="2">
-        <v>100</v>
-      </c>
-      <c r="K4" s="2">
-        <v>100</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
+      <c r="H4" s="4">
+        <v>100</v>
+      </c>
+      <c r="I4" s="4">
+        <v>100</v>
+      </c>
+      <c r="J4" s="4">
+        <v>100</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>59.259259259259203</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>43.3333333333333</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <v>79.4444444444444</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="4">
         <v>66.6666666666666</v>
       </c>
-      <c r="Q4" s="8">
-        <v>100</v>
-      </c>
-      <c r="R4" s="8">
+      <c r="Q4" s="4">
+        <v>100</v>
+      </c>
+      <c r="R4" s="4">
         <v>28.3333333333333</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="4">
         <v>80</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="4">
         <v>96.445497630331701</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="4">
         <v>60</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="4">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>56</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>55.597713352241136</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>82.44047619047619</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>63.395061728394985</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>59.113636363636353</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>68.266498652581205</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>53.848484848484844</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>80.059523809523782</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>80.739795918367321</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>45</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>29.968164327872088</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>41.697175925649873</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>45.134188022175003</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="4">
         <v>66.583564234106859</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="4">
         <v>63.395061728394985</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="4">
         <v>70.062074816976775</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="4">
         <v>74.639772727272728</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="4">
         <v>37.777777777777779</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="4">
         <v>92.143354017984606</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="4">
         <v>68.555555555555557</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="4">
         <v>75.303030303030297</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>64.046536796536742</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>63.888888888888886</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>62.499999999999964</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>62.777777777777771</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>81.733257784797658</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>76.944444444444443</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>44.444444444444436</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>97.222222222222214</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>60</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <v>19.801986853473895</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>48.76543209876538</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <v>57.44492544492541</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <v>70.648148148148096</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="4">
         <v>62.499999999999964</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="4">
         <v>93.333333333333329</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="4">
         <v>81.166666666666671</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="4">
         <v>66.666666666666671</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="4">
         <v>88.459651611585613</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="4">
         <v>83.333333333333329</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="4">
         <v>100</v>
       </c>
     </row>
@@ -25870,271 +25237,271 @@
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>53</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>60.369901736323904</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>95.91194968553458</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>62.42138364779867</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>61.155660377358494</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>70.580677840063544</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>58.018867924528301</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>85.220125786163521</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>94.070080862533672</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>70</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <v>31.108504626452248</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>58.925368831029154</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>52.913957461127225</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="4">
         <v>67.825846011520596</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="4">
         <v>62.42138364779867</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="4">
         <v>79.331069230669314</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="4">
         <v>60.346051939861908</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="4">
         <v>52.075471698113205</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="4">
         <v>90.993587249148561</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="4">
         <v>68.333333333333329</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="4">
         <v>83.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>60.289316318533757</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>91.666666666666671</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>62.083333333333293</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>65.9375</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>67.890357900977364</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>83.75</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>83.333333333333329</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>95.238095238095227</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>50</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>25.961522469636428</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>64.387464387464334</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>51.364197530864146</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="4">
         <v>69.214435106203354</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="4">
         <v>62.083333333333293</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="4">
         <v>71.447210867500701</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="4">
         <v>41.583843742811126</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="4">
         <v>60</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="4">
         <v>90.605204615571935</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="4">
         <v>60</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>60.614105786240273</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>96.726190476190467</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>64.880952380952309</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>58.4375</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>72.30920914750196</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>47.857142857142854</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>88.095238095238088</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>92.857142857142861</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>68.181818181818187</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>30.97360784344038</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="4">
         <v>55.635799385799324</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>54.087892266463641</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="4">
         <v>67.140319306016934</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="4">
         <v>64.880952380952309</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="4">
         <v>80.975899594825393</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="4">
         <v>71.59969394184894</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="4">
         <v>47.142857142857146</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="4">
         <v>92.382516289077827</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="4">
         <v>67.115384615384613</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="4">
         <v>85.416666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>59.918310322156422</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>98.07692307692308</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>57.435897435897395</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>62.596153846153847</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>69.34105958319887</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>56.153846153846153</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>80.769230769230745</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>95.604395604395592</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>91.666666666666671</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>41.942056072131322</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>60.96866096866092</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>51.816030123722399</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="4">
         <v>68.020590520590488</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="4">
         <v>57.435897435897395</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="4">
         <v>83.471522592285282</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="4">
         <v>49.099315405831348</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="4">
         <v>55.384615384615387</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="4">
         <v>88.192149103954932</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="4">
         <v>78.461538461538467</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="4">
         <v>72.727272727272734</v>
       </c>
     </row>
@@ -26142,131 +25509,131 @@
       <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>64.633883477633447</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>77.083333333333329</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>59.16666666666665</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>60</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>70.515770037381643</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>35</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>37.49999999999995</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>85.714285714285694</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>83.333333333333329</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
         <v>76.851851851851777</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>64.132034632034575</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="4">
         <v>65.135732323232247</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="4">
         <v>59.16666666666665</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="4">
         <v>88.888888888888857</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="4">
         <v>50</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="4">
         <v>70</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="4">
         <v>78.894463704015394</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="4">
         <v>73.75</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="4">
         <v>66.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>64.633883477633447</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>77.083333333333329</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>59.16666666666665</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>60</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>70.515770037381643</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>35</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>37.49999999999995</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>85.714285714285694</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>83.333333333333329</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
         <v>76.851851851851777</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <v>64.132034632034575</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="4">
         <v>65.135732323232247</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="4">
         <v>59.16666666666665</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="4">
         <v>88.888888888888857</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="4">
         <v>50</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="4">
         <v>70</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="4">
         <v>78.894463704015394</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="4">
         <v>73.75</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="4">
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -26274,72 +25641,72 @@
       <c r="A13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>120</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>58.477336527744299</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>87.430555555555571</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>62.796610169491551</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>60.371148459383747</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>70.070931947754673</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>56.624649859943972</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>79.305555555555515</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>87.777777777777757</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <v>63.513513513513516</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <v>29.712740557443087</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <v>51.381389387060437</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>49.804044160104716</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="4">
         <v>67.401194404308669</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="4">
         <v>62.796610169491551</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="4">
         <v>75.500384841058462</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="4">
         <v>68.294586336277234</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="4">
         <v>47.118644067796609</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="4">
         <v>91.126520862262126</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="4">
         <v>68.990384615384613</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="4">
         <v>80.185185185185176</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="V14" s="8">
+      <c r="V14" s="4">
         <v>59</v>
       </c>
     </row>
